--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,57 +1225,57 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1201,81 +1201,81 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
